--- a/admin/modules/fileExcel/file.xlsx
+++ b/admin/modules/fileExcel/file.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD36D3C5-53F5-45A0-A3F1-4016A24A62F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2823AF0-7CE6-4977-8F88-EE67844AAFF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9075" yWindow="150" windowWidth="10800" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>QUESTION_ID</t>
   </si>
@@ -67,12 +67,6 @@
     <t>understated</t>
   </si>
   <si>
-    <t>He failed in the election just because he ___________ his opponent.</t>
-  </si>
-  <si>
-    <t>They ________because it is a national holiday.</t>
-  </si>
-  <si>
     <t>aren’t working</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>won’t work</t>
   </si>
   <si>
-    <t>She’s finished the course, ____________?</t>
-  </si>
-  <si>
     <t>isn’t she</t>
   </si>
   <si>
@@ -94,9 +85,6 @@
     <t>under control</t>
   </si>
   <si>
-    <t>“Would you like a beer?” “ Not while I’m ___________”</t>
-  </si>
-  <si>
     <t>in the act</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>on duty</t>
   </si>
   <si>
-    <t>Some friends of mine are really fashion-conscious, while __________ are quite simple.</t>
-  </si>
-  <si>
     <t>some others</t>
   </si>
   <si>
@@ -118,9 +103,6 @@
     <t>anothers</t>
   </si>
   <si>
-    <t>According to some historians, If Napoleon had not invaded Russia, he _________ the rest of the world.</t>
-  </si>
-  <si>
     <t>had conquered</t>
   </si>
   <si>
@@ -133,7 +115,43 @@
     <t>Q7</t>
   </si>
   <si>
-    <t>According to some historians</t>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>We had to turn _______ their invitation to lunch as we had a previous engagement.</t>
+  </si>
+  <si>
+    <t>While driving to work, we ran out____ gas.</t>
+  </si>
+  <si>
+    <t>He died ____ heart disease.</t>
+  </si>
+  <si>
+    <t>The elevator is not running today. It is ________ order.</t>
+  </si>
+  <si>
+    <t>I explained ____ him what it meant</t>
+  </si>
+  <si>
+    <t>Pasteur devoted all his life _______ science</t>
+  </si>
+  <si>
+    <t>House cats are distantly related ___ lions and tigers.</t>
+  </si>
+  <si>
+    <t>Is this type of soil suitable ___ growing tomatoes ?</t>
+  </si>
+  <si>
+    <t>Were you aware _____ the regulations against smoking in this area ?</t>
+  </si>
+  <si>
+    <t>Your daughter is just started work, has not she? How is she getting _____?</t>
   </si>
 </sst>
 </file>
@@ -451,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -512,16 +530,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -532,16 +550,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -552,16 +570,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -572,16 +590,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -592,16 +610,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -609,22 +627,82 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
